--- a/TestData/Car Washing services (Hackathon).xlsx
+++ b/TestData/Car Washing services (Hackathon).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name of the car washin service centre </t>
   </si>

--- a/TestData/Car Washing services (Hackathon).xlsx
+++ b/TestData/Car Washing services (Hackathon).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name of the car washin service centre </t>
   </si>

--- a/TestData/Car Washing services (Hackathon).xlsx
+++ b/TestData/Car Washing services (Hackathon).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name of the car washin service centre </t>
   </si>
@@ -544,52 +544,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
